--- a/database/industries/siman/sekhouz/cashflow/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cashflow/yearly.xlsx
@@ -192,6 +192,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,6 +221,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -241,6 +261,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -266,6 +301,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -289,6 +339,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -314,6 +379,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -339,6 +419,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -362,6 +457,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -374,25 +484,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/12</t>
         </is>
@@ -409,25 +544,50 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1393-09-04 (5)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1394-02-22 (9)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1395-02-25 (8)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1396-02-28 (9)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1397-02-27 (11)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1398-03-12 (9)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1399-03-21 (10)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1400-02-31 (10)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-02-31 (11)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="M9" s="10" t="inlineStr">
         <is>
           <t>1401-07-30 (5)</t>
         </is>
@@ -455,6 +615,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -480,6 +655,21 @@
       <c r="H11" s="14">
         <v/>
       </c>
+      <c r="I11" s="14">
+        <v/>
+      </c>
+      <c r="J11" s="14">
+        <v/>
+      </c>
+      <c r="K11" s="14">
+        <v/>
+      </c>
+      <c r="L11" s="14">
+        <v/>
+      </c>
+      <c r="M11" s="14">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="inlineStr">
@@ -491,18 +681,33 @@
         <v/>
       </c>
       <c r="D12" s="16">
+        <v>598084</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1005476</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1052081</v>
+      </c>
+      <c r="G12" s="16">
+        <v>626323</v>
+      </c>
+      <c r="H12" s="16">
+        <v>535072</v>
+      </c>
+      <c r="I12" s="16">
         <v>678794</v>
       </c>
-      <c r="E12" s="16">
+      <c r="J12" s="16">
         <v>685856</v>
       </c>
-      <c r="F12" s="16">
+      <c r="K12" s="16">
         <v>2426081</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>2548696</v>
       </c>
-      <c r="H12" s="16">
+      <c r="M12" s="16">
         <v>4969827</v>
       </c>
     </row>
@@ -516,18 +721,33 @@
         <v/>
       </c>
       <c r="D13" s="12">
+        <v>-30868</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-50830</v>
+      </c>
+      <c r="F13" s="12">
+        <v>-42773</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-45019</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-33340</v>
+      </c>
+      <c r="I13" s="12">
         <v>-37508</v>
       </c>
-      <c r="E13" s="12">
+      <c r="J13" s="12">
         <v>-80718</v>
       </c>
-      <c r="F13" s="12">
+      <c r="K13" s="12">
         <v>-56427</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>-30853</v>
       </c>
-      <c r="H13" s="12">
+      <c r="M13" s="12">
         <v>-47680</v>
       </c>
     </row>
@@ -541,18 +761,33 @@
         <v/>
       </c>
       <c r="D14" s="18">
+        <v>567216</v>
+      </c>
+      <c r="E14" s="18">
+        <v>954646</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1009308</v>
+      </c>
+      <c r="G14" s="18">
+        <v>581304</v>
+      </c>
+      <c r="H14" s="18">
+        <v>501732</v>
+      </c>
+      <c r="I14" s="18">
         <v>641286</v>
       </c>
-      <c r="E14" s="18">
+      <c r="J14" s="18">
         <v>605138</v>
       </c>
-      <c r="F14" s="18">
+      <c r="K14" s="18">
         <v>2369654</v>
       </c>
-      <c r="G14" s="18">
+      <c r="L14" s="18">
         <v>2517843</v>
       </c>
-      <c r="H14" s="18">
+      <c r="M14" s="18">
         <v>4922147</v>
       </c>
     </row>
@@ -580,6 +815,21 @@
       <c r="H15" s="14">
         <v/>
       </c>
+      <c r="I15" s="14">
+        <v/>
+      </c>
+      <c r="J15" s="14">
+        <v/>
+      </c>
+      <c r="K15" s="14">
+        <v/>
+      </c>
+      <c r="L15" s="14">
+        <v/>
+      </c>
+      <c r="M15" s="14">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="15" t="inlineStr">
@@ -591,18 +841,33 @@
         <v/>
       </c>
       <c r="D16" s="16">
+        <v>422</v>
+      </c>
+      <c r="E16" s="16">
+        <v>267</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>136</v>
+      </c>
+      <c r="I16" s="16">
         <v>52</v>
       </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -616,18 +881,33 @@
         <v/>
       </c>
       <c r="D17" s="12">
+        <v>-127283</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-248749</v>
+      </c>
+      <c r="F17" s="12">
+        <v>-270993</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-197263</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-144012</v>
+      </c>
+      <c r="I17" s="12">
         <v>-122259</v>
       </c>
-      <c r="E17" s="12">
+      <c r="J17" s="12">
         <v>-107200</v>
       </c>
-      <c r="F17" s="12">
+      <c r="K17" s="12">
         <v>-311430</v>
       </c>
-      <c r="G17" s="12">
+      <c r="L17" s="12">
         <v>-57612</v>
       </c>
-      <c r="H17" s="12">
+      <c r="M17" s="12">
         <v>-532283</v>
       </c>
     </row>
@@ -645,16 +925,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
         <v>0</v>
       </c>
     </row>
@@ -668,18 +973,33 @@
         <v/>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>130</v>
       </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -696,15 +1016,30 @@
         <v>0</v>
       </c>
       <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
         <v>-10451</v>
       </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
         <v>0</v>
       </c>
     </row>
@@ -717,19 +1052,40 @@
       <c r="C21" s="12">
         <v/>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G21" s="12">
         <v>0</v>
       </c>
       <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -742,19 +1098,40 @@
       <c r="C22" s="16">
         <v/>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G22" s="16">
         <v>0</v>
       </c>
       <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
         <v>0</v>
       </c>
     </row>
@@ -780,6 +1157,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="12">
+        <v>4514</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
         <v>0</v>
       </c>
     </row>
@@ -793,18 +1185,33 @@
         <v/>
       </c>
       <c r="D24" s="16">
+        <v>-1248</v>
+      </c>
+      <c r="E24" s="16">
+        <v>-15891</v>
+      </c>
+      <c r="F24" s="16">
+        <v>-10907</v>
+      </c>
+      <c r="G24" s="16">
+        <v>-11474</v>
+      </c>
+      <c r="H24" s="16">
+        <v>-21</v>
+      </c>
+      <c r="I24" s="16">
         <v>-202906</v>
       </c>
-      <c r="E24" s="16">
+      <c r="J24" s="16">
         <v>-290486</v>
       </c>
-      <c r="F24" s="16">
+      <c r="K24" s="16">
         <v>-139248</v>
       </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
         <v>0</v>
       </c>
     </row>
@@ -818,18 +1225,33 @@
         <v/>
       </c>
       <c r="D25" s="12">
-        <v>0</v>
+        <v>128690</v>
       </c>
       <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>342000</v>
+      </c>
+      <c r="G25" s="12">
+        <v>85299</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
         <v>223297</v>
       </c>
-      <c r="F25" s="12">
+      <c r="K25" s="12">
         <v>180000</v>
       </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
         <v>1500200</v>
       </c>
     </row>
@@ -843,18 +1265,33 @@
         <v/>
       </c>
       <c r="D26" s="16">
+        <v>-100090</v>
+      </c>
+      <c r="E26" s="16">
+        <v>-283552</v>
+      </c>
+      <c r="F26" s="16">
+        <v>-124103</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
         <v>-222718</v>
       </c>
-      <c r="E26" s="16">
+      <c r="J26" s="16">
         <v>-50000</v>
       </c>
-      <c r="F26" s="16">
+      <c r="K26" s="16">
         <v>-170000</v>
       </c>
-      <c r="G26" s="16">
+      <c r="L26" s="16">
         <v>-1217886</v>
       </c>
-      <c r="H26" s="16">
+      <c r="M26" s="16">
         <v>-2200000</v>
       </c>
     </row>
@@ -867,19 +1304,40 @@
       <c r="C27" s="12">
         <v/>
       </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G27" s="12">
         <v>0</v>
       </c>
       <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <v>0</v>
       </c>
     </row>
@@ -892,19 +1350,40 @@
       <c r="C28" s="16">
         <v/>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G28" s="16">
         <v>0</v>
       </c>
       <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
         <v>0</v>
       </c>
     </row>
@@ -922,16 +1401,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="E29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
         <v>0</v>
       </c>
     </row>
@@ -945,18 +1449,33 @@
         <v/>
       </c>
       <c r="D30" s="16">
+        <v>509</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1795</v>
+      </c>
+      <c r="F30" s="16">
+        <v>445</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1014</v>
+      </c>
+      <c r="H30" s="16">
+        <v>994</v>
+      </c>
+      <c r="I30" s="16">
         <v>971</v>
       </c>
-      <c r="E30" s="16">
+      <c r="J30" s="16">
         <v>963</v>
       </c>
-      <c r="F30" s="16">
+      <c r="K30" s="16">
         <v>852</v>
       </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
         <v>0</v>
       </c>
     </row>
@@ -970,18 +1489,33 @@
         <v/>
       </c>
       <c r="D31" s="12">
+        <v>17883</v>
+      </c>
+      <c r="E31" s="12">
+        <v>50304</v>
+      </c>
+      <c r="F31" s="12">
+        <v>71286</v>
+      </c>
+      <c r="G31" s="12">
+        <v>52485</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1842</v>
+      </c>
+      <c r="I31" s="12">
         <v>4191</v>
       </c>
-      <c r="E31" s="12">
+      <c r="J31" s="12">
         <v>37972</v>
       </c>
-      <c r="F31" s="12">
+      <c r="K31" s="12">
         <v>13728</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12">
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
         <v>275512</v>
       </c>
     </row>
@@ -995,18 +1529,33 @@
         <v/>
       </c>
       <c r="D32" s="18">
+        <v>-81115</v>
+      </c>
+      <c r="E32" s="18">
+        <v>-495826</v>
+      </c>
+      <c r="F32" s="18">
+        <v>7728</v>
+      </c>
+      <c r="G32" s="18">
+        <v>-69939</v>
+      </c>
+      <c r="H32" s="18">
+        <v>-136547</v>
+      </c>
+      <c r="I32" s="18">
         <v>-542669</v>
       </c>
-      <c r="E32" s="18">
+      <c r="J32" s="18">
         <v>-195775</v>
       </c>
-      <c r="F32" s="18">
+      <c r="K32" s="18">
         <v>-426098</v>
       </c>
-      <c r="G32" s="18">
+      <c r="L32" s="18">
         <v>-1275498</v>
       </c>
-      <c r="H32" s="18">
+      <c r="M32" s="18">
         <v>-956571</v>
       </c>
     </row>
@@ -1020,18 +1569,33 @@
         <v/>
       </c>
       <c r="D33" s="20">
+        <v>486101</v>
+      </c>
+      <c r="E33" s="20">
+        <v>458820</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1017036</v>
+      </c>
+      <c r="G33" s="20">
+        <v>511365</v>
+      </c>
+      <c r="H33" s="20">
+        <v>365185</v>
+      </c>
+      <c r="I33" s="20">
         <v>98617</v>
       </c>
-      <c r="E33" s="20">
+      <c r="J33" s="20">
         <v>409363</v>
       </c>
-      <c r="F33" s="20">
+      <c r="K33" s="20">
         <v>1943556</v>
       </c>
-      <c r="G33" s="20">
+      <c r="L33" s="20">
         <v>1242345</v>
       </c>
-      <c r="H33" s="20">
+      <c r="M33" s="20">
         <v>3965576</v>
       </c>
     </row>
@@ -1059,6 +1623,21 @@
       <c r="H34" s="14">
         <v/>
       </c>
+      <c r="I34" s="14">
+        <v/>
+      </c>
+      <c r="J34" s="14">
+        <v/>
+      </c>
+      <c r="K34" s="14">
+        <v/>
+      </c>
+      <c r="L34" s="14">
+        <v/>
+      </c>
+      <c r="M34" s="14">
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="15" t="inlineStr">
@@ -1076,12 +1655,27 @@
         <v>0</v>
       </c>
       <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
         <v>122102</v>
       </c>
-      <c r="G35" s="16">
+      <c r="L35" s="16">
         <v>103864</v>
       </c>
-      <c r="H35" s="16">
+      <c r="M35" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1119,6 +1713,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="15" t="inlineStr">
@@ -1129,19 +1748,40 @@
       <c r="C37" s="16">
         <v/>
       </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="16">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
         <v>181741</v>
       </c>
-      <c r="H37" s="16">
+      <c r="M37" s="16">
         <v>280620</v>
       </c>
     </row>
@@ -1154,19 +1794,40 @@
       <c r="C38" s="12">
         <v/>
       </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
         <v>-266099</v>
       </c>
-      <c r="H38" s="12">
+      <c r="M38" s="12">
         <v>-256150</v>
       </c>
     </row>
@@ -1180,18 +1841,33 @@
         <v/>
       </c>
       <c r="D39" s="16">
+        <v>138681</v>
+      </c>
+      <c r="E39" s="16">
+        <v>190000</v>
+      </c>
+      <c r="F39" s="16">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="16">
+        <v>174900</v>
+      </c>
+      <c r="H39" s="16">
+        <v>589900</v>
+      </c>
+      <c r="I39" s="16">
         <v>564900</v>
       </c>
-      <c r="E39" s="16">
+      <c r="J39" s="16">
         <v>776301</v>
       </c>
-      <c r="F39" s="16">
+      <c r="K39" s="16">
         <v>806250</v>
       </c>
-      <c r="G39" s="16">
+      <c r="L39" s="16">
         <v>268000</v>
       </c>
-      <c r="H39" s="16">
+      <c r="M39" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1205,18 +1881,33 @@
         <v/>
       </c>
       <c r="D40" s="12">
+        <v>-199324</v>
+      </c>
+      <c r="E40" s="12">
+        <v>-270395</v>
+      </c>
+      <c r="F40" s="12">
+        <v>-381557</v>
+      </c>
+      <c r="G40" s="12">
+        <v>-592671</v>
+      </c>
+      <c r="H40" s="12">
+        <v>-629135</v>
+      </c>
+      <c r="I40" s="12">
         <v>-534892</v>
       </c>
-      <c r="E40" s="12">
+      <c r="J40" s="12">
         <v>-1256148</v>
       </c>
-      <c r="F40" s="12">
+      <c r="K40" s="12">
         <v>-881198</v>
       </c>
-      <c r="G40" s="12">
+      <c r="L40" s="12">
         <v>-728917</v>
       </c>
-      <c r="H40" s="12">
+      <c r="M40" s="12">
         <v>-86038</v>
       </c>
     </row>
@@ -1230,18 +1921,33 @@
         <v/>
       </c>
       <c r="D41" s="16">
+        <v>-107926</v>
+      </c>
+      <c r="E41" s="16">
+        <v>-96323</v>
+      </c>
+      <c r="F41" s="16">
+        <v>-104740</v>
+      </c>
+      <c r="G41" s="16">
+        <v>-74401</v>
+      </c>
+      <c r="H41" s="16">
+        <v>-82461</v>
+      </c>
+      <c r="I41" s="16">
         <v>-90569</v>
       </c>
-      <c r="E41" s="16">
+      <c r="J41" s="16">
         <v>-163128</v>
       </c>
-      <c r="F41" s="16">
+      <c r="K41" s="16">
         <v>-19530</v>
       </c>
-      <c r="G41" s="16">
+      <c r="L41" s="16">
         <v>-72131</v>
       </c>
-      <c r="H41" s="16">
+      <c r="M41" s="16">
         <v>-4207</v>
       </c>
     </row>
@@ -1259,16 +1965,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
         <v>76481</v>
       </c>
-      <c r="H42" s="12">
+      <c r="M42" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1286,16 +2017,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E43" s="16">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="E43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1313,16 +2069,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12">
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1340,16 +2121,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="16">
         <v>499999</v>
       </c>
-      <c r="F45" s="16">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1367,16 +2173,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
         <v>-499999</v>
       </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="12">
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1394,16 +2225,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E47" s="16">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16">
+      <c r="E47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
         <v>-43595</v>
       </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16">
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1421,16 +2277,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1448,16 +2329,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E49" s="16">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="E49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1471,18 +2377,33 @@
         <v/>
       </c>
       <c r="D50" s="12">
+        <v>-280477</v>
+      </c>
+      <c r="E50" s="12">
+        <v>-204386</v>
+      </c>
+      <c r="F50" s="12">
+        <v>-715008</v>
+      </c>
+      <c r="G50" s="12">
+        <v>-53233</v>
+      </c>
+      <c r="H50" s="12">
+        <v>-164789</v>
+      </c>
+      <c r="I50" s="12">
         <v>-90547</v>
       </c>
-      <c r="E50" s="12">
+      <c r="J50" s="12">
         <v>-149221</v>
       </c>
-      <c r="F50" s="12">
+      <c r="K50" s="12">
         <v>-579589</v>
       </c>
-      <c r="G50" s="12">
+      <c r="L50" s="12">
         <v>-1168575</v>
       </c>
-      <c r="H50" s="12">
+      <c r="M50" s="12">
         <v>-3033185</v>
       </c>
     </row>
@@ -1496,18 +2417,33 @@
         <v/>
       </c>
       <c r="D51" s="18">
+        <v>-449046</v>
+      </c>
+      <c r="E51" s="18">
+        <v>-381104</v>
+      </c>
+      <c r="F51" s="18">
+        <v>-1101305</v>
+      </c>
+      <c r="G51" s="18">
+        <v>-545405</v>
+      </c>
+      <c r="H51" s="18">
+        <v>-286485</v>
+      </c>
+      <c r="I51" s="18">
         <v>-151108</v>
       </c>
-      <c r="E51" s="18">
+      <c r="J51" s="18">
         <v>-292197</v>
       </c>
-      <c r="F51" s="18">
+      <c r="K51" s="18">
         <v>-1095559</v>
       </c>
-      <c r="G51" s="18">
+      <c r="L51" s="18">
         <v>-1605636</v>
       </c>
-      <c r="H51" s="18">
+      <c r="M51" s="18">
         <v>-3098960</v>
       </c>
     </row>
@@ -1521,18 +2457,33 @@
         <v/>
       </c>
       <c r="D52" s="20">
+        <v>37055</v>
+      </c>
+      <c r="E52" s="20">
+        <v>77716</v>
+      </c>
+      <c r="F52" s="20">
+        <v>-84269</v>
+      </c>
+      <c r="G52" s="20">
+        <v>-34040</v>
+      </c>
+      <c r="H52" s="20">
+        <v>78700</v>
+      </c>
+      <c r="I52" s="20">
         <v>-52491</v>
       </c>
-      <c r="E52" s="20">
+      <c r="J52" s="20">
         <v>117166</v>
       </c>
-      <c r="F52" s="20">
+      <c r="K52" s="20">
         <v>847997</v>
       </c>
-      <c r="G52" s="20">
+      <c r="L52" s="20">
         <v>-363291</v>
       </c>
-      <c r="H52" s="20">
+      <c r="M52" s="20">
         <v>866616</v>
       </c>
     </row>
@@ -1546,18 +2497,33 @@
         <v/>
       </c>
       <c r="D53" s="16">
+        <v>47606</v>
+      </c>
+      <c r="E53" s="16">
+        <v>84661</v>
+      </c>
+      <c r="F53" s="16">
+        <v>172829</v>
+      </c>
+      <c r="G53" s="16">
+        <v>90784</v>
+      </c>
+      <c r="H53" s="16">
+        <v>56221</v>
+      </c>
+      <c r="I53" s="16">
         <v>135431</v>
       </c>
-      <c r="E53" s="16">
+      <c r="J53" s="16">
         <v>84026</v>
       </c>
-      <c r="F53" s="16">
+      <c r="K53" s="16">
         <v>202117</v>
       </c>
-      <c r="G53" s="16">
+      <c r="L53" s="16">
         <v>1090655</v>
       </c>
-      <c r="H53" s="16">
+      <c r="M53" s="16">
         <v>812517</v>
       </c>
     </row>
@@ -1571,18 +2537,33 @@
         <v/>
       </c>
       <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>10452</v>
+      </c>
+      <c r="F54" s="12">
+        <v>2224</v>
+      </c>
+      <c r="G54" s="12">
+        <v>-523</v>
+      </c>
+      <c r="H54" s="12">
+        <v>510</v>
+      </c>
+      <c r="I54" s="12">
         <v>1086</v>
       </c>
-      <c r="E54" s="12">
+      <c r="J54" s="12">
         <v>925</v>
       </c>
-      <c r="F54" s="12">
+      <c r="K54" s="12">
         <v>40541</v>
       </c>
-      <c r="G54" s="12">
+      <c r="L54" s="12">
         <v>85153</v>
       </c>
-      <c r="H54" s="12">
+      <c r="M54" s="12">
         <v>-14242</v>
       </c>
     </row>
@@ -1596,18 +2577,33 @@
         <v/>
       </c>
       <c r="D55" s="18">
+        <v>84661</v>
+      </c>
+      <c r="E55" s="18">
+        <v>172829</v>
+      </c>
+      <c r="F55" s="18">
+        <v>90784</v>
+      </c>
+      <c r="G55" s="18">
+        <v>56221</v>
+      </c>
+      <c r="H55" s="18">
+        <v>135431</v>
+      </c>
+      <c r="I55" s="18">
         <v>84026</v>
       </c>
-      <c r="E55" s="18">
+      <c r="J55" s="18">
         <v>202117</v>
       </c>
-      <c r="F55" s="18">
+      <c r="K55" s="18">
         <v>1090655</v>
       </c>
-      <c r="G55" s="18">
+      <c r="L55" s="18">
         <v>812517</v>
       </c>
-      <c r="H55" s="18">
+      <c r="M55" s="18">
         <v>1664891</v>
       </c>
     </row>
@@ -1624,15 +2620,30 @@
         <v>0</v>
       </c>
       <c r="E56" s="12">
-        <v>0</v>
+        <v>728923</v>
       </c>
       <c r="F56" s="12">
+        <v>-505155</v>
+      </c>
+      <c r="G56" s="12">
+        <v>109104</v>
+      </c>
+      <c r="H56" s="12">
+        <v>56833</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
         <v>524034</v>
       </c>
-      <c r="G56" s="12">
+      <c r="L56" s="12">
         <v>318721</v>
       </c>
-      <c r="H56" s="12">
+      <c r="M56" s="12">
         <v>63000</v>
       </c>
     </row>
@@ -1656,6 +2667,21 @@
         <v/>
       </c>
       <c r="H57" s="2">
+        <v/>
+      </c>
+      <c r="I57" s="2">
+        <v/>
+      </c>
+      <c r="J57" s="2">
+        <v/>
+      </c>
+      <c r="K57" s="2">
+        <v/>
+      </c>
+      <c r="L57" s="2">
+        <v/>
+      </c>
+      <c r="M57" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/cashflow/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cashflow/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E586F62B-D813-406B-AC80-427BF337D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
     <t>1401-02-31 (11)</t>
   </si>
   <si>
-    <t>1401-09-14 (7)</t>
+    <t>1401-10-28 (8)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/sekhouz/cashflow/yearly.xlsx
+++ b/database/industries/siman/sekhouz/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E586F62B-D813-406B-AC80-427BF337D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D747AC-157A-4280-A5A8-DAD0B1F4ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-12 (9)</t>
-  </si>
-  <si>
     <t>1399-03-21 (10)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-31 (11)</t>
   </si>
   <si>
-    <t>1401-10-28 (8)</t>
+    <t>1402-02-25 (10)</t>
+  </si>
+  <si>
+    <t>1402-02-25 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -94,61 +94,61 @@
     <t>دریافت‌های نقدی حاصل از فروش دارایی‌های نگهداری‌شده برای فروش</t>
   </si>
   <si>
+    <t>وجوه دریافتی بابت فروش دارایی های نامشهود</t>
+  </si>
+  <si>
+    <t>وجوه پرداختی بابت تحصیل دارایی های نامشهود</t>
+  </si>
+  <si>
+    <t>تسهیلات اعطایی به اشخاص</t>
+  </si>
+  <si>
+    <t>استرداد تسهیلات اعطایی به اشخاص</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های بلند مدت</t>
+  </si>
+  <si>
+    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های بلند مدت</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های کوتاه مدت</t>
+  </si>
+  <si>
+    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های کوتاه مدت</t>
+  </si>
+  <si>
+    <t>وجوه دریافتی بابت فروش سرمایه گذاری در املاک</t>
+  </si>
+  <si>
+    <t>وجوه پرداختی بابت خرید سرمایه گذاری در املاک</t>
+  </si>
+  <si>
+    <t>دریافت‌های نقدی حاصل از سود تسهیلات اعطایی به دیگران</t>
+  </si>
+  <si>
+    <t>سود سهام دریافتی</t>
+  </si>
+  <si>
+    <t>سود دریافتنی بابت سایر سرمایه گذاری ها</t>
+  </si>
+  <si>
+    <t>جریان خالص ورود (خروج) نقد حاصل از فعالیت‌های سرمایه‌گذاری IFRS</t>
+  </si>
+  <si>
+    <t>جریان خالص ورود (خروج) وجه نقد قبل از فعالیتهای تامین مالی</t>
+  </si>
+  <si>
+    <t>فعالیتهای تامین مالی</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی حاصل از افزایش سرمایه</t>
+  </si>
+  <si>
+    <t>دریافت‌های نقدی حاصل از صرف سهام</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>وجوه دریافتی بابت فروش دارایی های نامشهود</t>
-  </si>
-  <si>
-    <t>وجوه پرداختی بابت تحصیل دارایی های نامشهود</t>
-  </si>
-  <si>
-    <t>تسهیلات اعطایی به اشخاص</t>
-  </si>
-  <si>
-    <t>استرداد تسهیلات اعطایی به اشخاص</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های بلند مدت</t>
-  </si>
-  <si>
-    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های بلند مدت</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های کوتاه مدت</t>
-  </si>
-  <si>
-    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های کوتاه مدت</t>
-  </si>
-  <si>
-    <t>وجوه دریافتی بابت فروش سرمایه گذاری در املاک</t>
-  </si>
-  <si>
-    <t>وجوه پرداختی بابت خرید سرمایه گذاری در املاک</t>
-  </si>
-  <si>
-    <t>دریافت‌های نقدی حاصل از سود تسهیلات اعطایی به دیگران</t>
-  </si>
-  <si>
-    <t>سود سهام دریافتی</t>
-  </si>
-  <si>
-    <t>سود دریافتنی بابت سایر سرمایه گذاری ها</t>
-  </si>
-  <si>
-    <t>جریان خالص ورود (خروج) نقد حاصل از فعالیت‌های سرمایه‌گذاری IFRS</t>
-  </si>
-  <si>
-    <t>جریان خالص ورود (خروج) وجه نقد قبل از فعالیتهای تامین مالی</t>
-  </si>
-  <si>
-    <t>فعالیتهای تامین مالی</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی حاصل از افزایش سرمایه</t>
-  </si>
-  <si>
-    <t>دریافت‌های نقدی حاصل از صرف سهام</t>
   </si>
   <si>
     <t>وجوه دریافتی بابت فروش سهام شرکت اصلی توسط شرکتهای فرعی / سهام خزانه</t>
@@ -696,14 +696,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,7 +712,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -743,7 +743,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -774,7 +774,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,7 +825,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -836,70 +836,70 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>678794</v>
+        <v>685856</v>
       </c>
       <c r="E12" s="15">
-        <v>685856</v>
+        <v>2426081</v>
       </c>
       <c r="F12" s="15">
-        <v>2426081</v>
+        <v>2548696</v>
       </c>
       <c r="G12" s="15">
-        <v>2548696</v>
+        <v>4969827</v>
       </c>
       <c r="H12" s="15">
-        <v>4969827</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6298238</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-37508</v>
+        <v>-80718</v>
       </c>
       <c r="E13" s="11">
-        <v>-80718</v>
+        <v>-56427</v>
       </c>
       <c r="F13" s="11">
-        <v>-56427</v>
+        <v>-30853</v>
       </c>
       <c r="G13" s="11">
-        <v>-30853</v>
+        <v>-47680</v>
       </c>
       <c r="H13" s="11">
-        <v>-47680</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-72787</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>641286</v>
+        <v>605138</v>
       </c>
       <c r="E14" s="17">
-        <v>605138</v>
+        <v>2369654</v>
       </c>
       <c r="F14" s="17">
-        <v>2369654</v>
+        <v>2517843</v>
       </c>
       <c r="G14" s="17">
-        <v>2517843</v>
+        <v>4922147</v>
       </c>
       <c r="H14" s="17">
-        <v>4922147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6225451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -910,13 +910,13 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -931,58 +931,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-122259</v>
+        <v>-107200</v>
       </c>
       <c r="E17" s="11">
-        <v>-107200</v>
+        <v>-311430</v>
       </c>
       <c r="F17" s="11">
-        <v>-311430</v>
+        <v>-57612</v>
       </c>
       <c r="G17" s="11">
-        <v>-57612</v>
+        <v>-532283</v>
       </c>
       <c r="H17" s="11">
-        <v>-532283</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-228214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E19" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-10451</v>
       </c>
       <c r="E20" s="15">
-        <v>-10451</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
@@ -1015,9 +1015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1036,9 +1036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1057,9 +1057,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1078,19 +1078,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-202906</v>
+        <v>-290486</v>
       </c>
       <c r="E24" s="15">
-        <v>-290486</v>
+        <v>-139248</v>
       </c>
       <c r="F24" s="15">
-        <v>-139248</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -1099,51 +1099,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>223297</v>
       </c>
       <c r="E25" s="11">
-        <v>223297</v>
+        <v>180000</v>
       </c>
       <c r="F25" s="11">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>1500200</v>
       </c>
       <c r="H25" s="11">
-        <v>1500200</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-222718</v>
+        <v>-50000</v>
       </c>
       <c r="E26" s="15">
-        <v>-50000</v>
+        <v>-170000</v>
       </c>
       <c r="F26" s="15">
-        <v>-170000</v>
+        <v>-1217886</v>
       </c>
       <c r="G26" s="15">
-        <v>-1217886</v>
+        <v>-2200000</v>
       </c>
       <c r="H26" s="15">
-        <v>-2200000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-3295000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1162,9 +1162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1183,40 +1183,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E30" s="15">
-        <v>963</v>
+        <v>852</v>
       </c>
       <c r="F30" s="15">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="G30" s="15">
         <v>0</v>
@@ -1225,72 +1225,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>4191</v>
+        <v>37972</v>
       </c>
       <c r="E31" s="11">
-        <v>37972</v>
+        <v>13728</v>
       </c>
       <c r="F31" s="11">
-        <v>13728</v>
+        <v>0</v>
       </c>
       <c r="G31" s="11">
-        <v>0</v>
+        <v>275512</v>
       </c>
       <c r="H31" s="11">
-        <v>275512</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>672761</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-542669</v>
+        <v>-195775</v>
       </c>
       <c r="E32" s="17">
-        <v>-195775</v>
+        <v>-426098</v>
       </c>
       <c r="F32" s="17">
-        <v>-426098</v>
+        <v>-1275498</v>
       </c>
       <c r="G32" s="17">
-        <v>-1275498</v>
+        <v>-956571</v>
       </c>
       <c r="H32" s="17">
-        <v>-956571</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2850453</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>98617</v>
+        <v>409363</v>
       </c>
       <c r="E33" s="19">
-        <v>409363</v>
+        <v>1943556</v>
       </c>
       <c r="F33" s="19">
-        <v>1943556</v>
+        <v>1242345</v>
       </c>
       <c r="G33" s="19">
-        <v>1242345</v>
+        <v>3965576</v>
       </c>
       <c r="H33" s="19">
-        <v>3965576</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3374998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1299,49 +1299,49 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
         <v>0</v>
       </c>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>122102</v>
       </c>
       <c r="F35" s="15">
-        <v>122102</v>
+        <v>103864</v>
       </c>
       <c r="G35" s="15">
-        <v>103864</v>
+        <v>0</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1353,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="15">
-        <v>0</v>
+        <v>181741</v>
       </c>
       <c r="G37" s="15">
-        <v>181741</v>
+        <v>280620</v>
       </c>
       <c r="H37" s="15">
-        <v>280620</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>184645</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1374,106 +1374,106 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>-266099</v>
       </c>
       <c r="G38" s="11">
-        <v>-266099</v>
+        <v>-256150</v>
       </c>
       <c r="H38" s="11">
-        <v>-256150</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-132785</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>564900</v>
+        <v>776301</v>
       </c>
       <c r="E39" s="15">
-        <v>776301</v>
+        <v>806250</v>
       </c>
       <c r="F39" s="15">
-        <v>806250</v>
+        <v>268000</v>
       </c>
       <c r="G39" s="15">
-        <v>268000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>638145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-534892</v>
+        <v>-1256148</v>
       </c>
       <c r="E40" s="11">
-        <v>-1256148</v>
+        <v>-881198</v>
       </c>
       <c r="F40" s="11">
-        <v>-881198</v>
+        <v>-728917</v>
       </c>
       <c r="G40" s="11">
-        <v>-728917</v>
+        <v>-86038</v>
       </c>
       <c r="H40" s="11">
-        <v>-86038</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-142333</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-90569</v>
+        <v>-163128</v>
       </c>
       <c r="E41" s="15">
-        <v>-163128</v>
+        <v>-19530</v>
       </c>
       <c r="F41" s="15">
-        <v>-19530</v>
+        <v>-72131</v>
       </c>
       <c r="G41" s="15">
-        <v>-72131</v>
+        <v>-4207</v>
       </c>
       <c r="H41" s="15">
-        <v>-4207</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-8476</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
-        <v>24</v>
+      <c r="D42" s="11">
+        <v>0</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
+        <v>76481</v>
       </c>
       <c r="G42" s="11">
-        <v>76481</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>24</v>
+      <c r="D43" s="15">
+        <v>0</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>24</v>
+      <c r="D44" s="11">
+        <v>0</v>
       </c>
       <c r="E44" s="11">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>24</v>
+      <c r="D45" s="15">
+        <v>499999</v>
       </c>
       <c r="E45" s="15">
-        <v>499999</v>
+        <v>0</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>24</v>
+      <c r="D46" s="11">
+        <v>0</v>
       </c>
       <c r="E46" s="11">
-        <v>0</v>
+        <v>-499999</v>
       </c>
       <c r="F46" s="11">
-        <v>-499999</v>
+        <v>0</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -1551,19 +1551,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>24</v>
+      <c r="D47" s="15">
+        <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>-43595</v>
       </c>
       <c r="F47" s="15">
-        <v>-43595</v>
+        <v>0</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>24</v>
+      <c r="D48" s="11">
+        <v>0</v>
       </c>
       <c r="E48" s="11">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>24</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1614,133 +1614,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-90547</v>
+        <v>-149221</v>
       </c>
       <c r="E50" s="11">
-        <v>-149221</v>
+        <v>-579589</v>
       </c>
       <c r="F50" s="11">
-        <v>-579589</v>
+        <v>-1168575</v>
       </c>
       <c r="G50" s="11">
-        <v>-1168575</v>
+        <v>-3033185</v>
       </c>
       <c r="H50" s="11">
-        <v>-3033185</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-4819487</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-151108</v>
+        <v>-292197</v>
       </c>
       <c r="E51" s="17">
-        <v>-292197</v>
+        <v>-1095559</v>
       </c>
       <c r="F51" s="17">
-        <v>-1095559</v>
+        <v>-1605636</v>
       </c>
       <c r="G51" s="17">
-        <v>-1605636</v>
+        <v>-3098960</v>
       </c>
       <c r="H51" s="17">
-        <v>-3098960</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-4280291</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>-52491</v>
+        <v>117166</v>
       </c>
       <c r="E52" s="19">
-        <v>117166</v>
+        <v>847997</v>
       </c>
       <c r="F52" s="19">
-        <v>847997</v>
+        <v>-363291</v>
       </c>
       <c r="G52" s="19">
-        <v>-363291</v>
+        <v>866616</v>
       </c>
       <c r="H52" s="19">
-        <v>866616</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-905293</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>135431</v>
+        <v>84026</v>
       </c>
       <c r="E53" s="15">
-        <v>84026</v>
+        <v>202117</v>
       </c>
       <c r="F53" s="15">
-        <v>202117</v>
+        <v>1090655</v>
       </c>
       <c r="G53" s="15">
-        <v>1090655</v>
+        <v>812517</v>
       </c>
       <c r="H53" s="15">
-        <v>812517</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1664891</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>1086</v>
+        <v>925</v>
       </c>
       <c r="E54" s="11">
-        <v>925</v>
+        <v>40541</v>
       </c>
       <c r="F54" s="11">
-        <v>40541</v>
+        <v>85153</v>
       </c>
       <c r="G54" s="11">
-        <v>85153</v>
+        <v>-14242</v>
       </c>
       <c r="H54" s="11">
-        <v>-14242</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1897685</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>84026</v>
+        <v>202117</v>
       </c>
       <c r="E55" s="17">
-        <v>202117</v>
+        <v>1090655</v>
       </c>
       <c r="F55" s="17">
-        <v>1090655</v>
+        <v>812517</v>
       </c>
       <c r="G55" s="17">
-        <v>812517</v>
+        <v>1664891</v>
       </c>
       <c r="H55" s="17">
-        <v>1664891</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2657283</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>524034</v>
       </c>
       <c r="F56" s="11">
-        <v>524034</v>
+        <v>318721</v>
       </c>
       <c r="G56" s="11">
-        <v>318721</v>
+        <v>63000</v>
       </c>
       <c r="H56" s="11">
-        <v>63000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
